--- a/TestData approach based on potential bug.xlsx
+++ b/TestData approach based on potential bug.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mindjet/PycharmProjects/WiseTestData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550BDE77-74D6-7647-A9D0-2DC6700A5F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B691AD-1CF1-3641-A4B6-1DB8B277A464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4620" yWindow="500" windowWidth="39420" windowHeight="24760" xr2:uid="{C8351E41-4762-1448-A983-E73016823804}"/>
   </bookViews>
@@ -124,9 +124,78 @@
     <t>Sub-set of both positive and negative test data which triggers data synchronization or simulates specific non-functional conditions</t>
   </si>
   <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>Specific analysis of which minimum amount of data fields to be exchanged with connected systems; verification that unnecessary data is not exchanged</t>
+  </si>
+  <si>
+    <t>tests with permutations of positive, edge conditions, use/unuse of optional fields and reset of default value(s)</t>
+  </si>
+  <si>
+    <t>Negative, empty, Null, optional</t>
+  </si>
+  <si>
+    <t>tests with permutations of negative, zero, Null, use/unuse of optional fields and reset of default value(s)</t>
+  </si>
+  <si>
+    <t>Positive, negative, edge, optional</t>
+  </si>
+  <si>
+    <t>Optimal sub-set is permutation of positive fields with one or two "on-edge" or/and unused optional</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>Each test case should have one field with invalid value. To reinforce - generate all pairs combination involving 2 invalid fields</t>
+  </si>
+  <si>
+    <t>How data should be obtained</t>
+  </si>
+  <si>
+    <t>Provide examples in schema (no generation)-&gt;Run all pairs</t>
+  </si>
+  <si>
+    <t>Generate or provide examples -&gt; Run all pairs</t>
+  </si>
+  <si>
+    <t>provide examples (non key fields could be generated and pasted) -&gt; Run all pairs</t>
+  </si>
+  <si>
+    <t>provide examples (key fields always the same) - &gt; Run all pairs or static test</t>
+  </si>
+  <si>
+    <t>Positive, negative, optional</t>
+  </si>
+  <si>
+    <t>Generate from schema or provide examples -&gt; Run all pairs</t>
+  </si>
+  <si>
+    <t>Perform not complete transaction on UI or/and non-UI, verify data is not saved where not needed (e.g. user did not confirm or API is timed out)</t>
+  </si>
+  <si>
+    <t>Verify data record does not contain redundant or duplicating fields in DB, verify that API does not append redundant data against specifications</t>
+  </si>
+  <si>
+    <t>Static data</t>
+  </si>
+  <si>
+    <t>Positive, edge</t>
+  </si>
+  <si>
+    <t>Verify upload and download perform full data transmission/buffering on edge file size</t>
+  </si>
+  <si>
+    <t>Positive, Optional</t>
+  </si>
+  <si>
+    <t>Permutation of unused (empty) required fields. Verify invalidation based on empty required field(s)</t>
+  </si>
+  <si>
     <t>permutation of diverse of positive test data and test unique operations: 
 1) create new; read the record
-2) create new with same key attribute(s); read- should fail or create new record depending on expected behaviour
+2) create new with same key attribute(s); read- should fail or create new record depending on expected behavior
 3) update existing record with correct data, read - should update properly each field or selectively
 4) update existing record with incorrect data, read - should not update
 5) try to update non-existing record - should reject
@@ -138,88 +207,19 @@
 11) create new with one or 2 invalid field; read- should fail to create</t>
   </si>
   <si>
-    <t>Positive</t>
-  </si>
-  <si>
-    <t>Specific analysis of which minimum amount of data fields to be exchanged with connected systems; verification that unnecessary data is not exchanged</t>
-  </si>
-  <si>
-    <t>tests with permutations of positive, edge conditions, use/unuse of optional fields and reset of default value(s)</t>
-  </si>
-  <si>
-    <t>Negative, empty, Null, optional</t>
-  </si>
-  <si>
-    <t>tests with permutations of negative, zero, Null, use/unuse of optional fields and reset of default value(s)</t>
-  </si>
-  <si>
-    <t>Positive, negative, edge, optional</t>
-  </si>
-  <si>
-    <t>Requires to find all "decision-making' fields and build functional path decision tree to find all test cases (i.e. field  values). After that all other fields (non decisin making) should be added to each test case</t>
-  </si>
-  <si>
-    <t>Optimal sub-set is permutation of positive fields with one or two "on-edge" or/and unused optional</t>
-  </si>
-  <si>
-    <t>Negative</t>
-  </si>
-  <si>
-    <t>Each test case should have one field with invalid value. To reinforce - generate all pairs combination involving 2 invalid fields</t>
-  </si>
-  <si>
-    <t>How data should be obtained</t>
-  </si>
-  <si>
-    <t>Provide examples in schema (no generation)-&gt;Run all pairs</t>
-  </si>
-  <si>
-    <t>Generate or provide examples -&gt; Run all pairs</t>
-  </si>
-  <si>
-    <t>provide examples (non key fields could be generated and pasted) -&gt; Run all pairs</t>
-  </si>
-  <si>
-    <t>provide examples (key fields always the same) - &gt; Run all pairs or static test</t>
-  </si>
-  <si>
-    <t>Try to to save existing data on each endpoint level (e.g. UI, DB, API, etc), verify data is neither overriden nor duplicated</t>
-  </si>
-  <si>
-    <t>Positive, negative, optional</t>
-  </si>
-  <si>
-    <t>Generate from schema or provide examples -&gt; Run all pairs</t>
-  </si>
-  <si>
-    <t>Perform not complete transaction on UI or/and non-UI, verify data is not saved where not needed (e.g. user did not confirm or API is timed out)</t>
-  </si>
-  <si>
-    <t>Create a record, verify it is created only where it is expected and not shared with loosly coupled systems</t>
-  </si>
-  <si>
-    <t>Unexpeced redundant data</t>
-  </si>
-  <si>
-    <t>Verify data record does not contain redundant or duplicating fields in DB, verify that API does not append redundant data against specifications</t>
-  </si>
-  <si>
-    <t>Static data</t>
-  </si>
-  <si>
-    <t>Positive, edge</t>
-  </si>
-  <si>
-    <t>Verify upload and download perform full data transmission/buffering on edge file size</t>
-  </si>
-  <si>
-    <t>Positive, Optional</t>
-  </si>
-  <si>
-    <t>Permutation of unused (empty) optional fields with static required fields. Verify no invalidation based on empty optinal field(s)</t>
-  </si>
-  <si>
-    <t>Permutation of unused (empty) required fields. Verify invalidation based on empty required field(s)</t>
+    <t>Requires to find all "decision-making' fields and build functional path decision tree to find all test cases (i.e. field  values). After that all other fields (non decision making) should be added to each test case</t>
+  </si>
+  <si>
+    <t>Try to to save existing data on each endpoint level (e.g. UI, DB, API, etc), verify data is neither overridden nor duplicated</t>
+  </si>
+  <si>
+    <t>Create a record, verify it is created only where it is expected and not shared with loosely coupled systems</t>
+  </si>
+  <si>
+    <t>Unexpected redundant data</t>
+  </si>
+  <si>
+    <t>Permutation of unused (empty) optional fields with static required fields. Verify no invalidation based on empty optimal field(s)</t>
   </si>
 </sst>
 </file>
@@ -321,40 +321,6 @@
   <dxfs count="6">
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color rgb="FF3F3F3F"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -429,6 +395,40 @@
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF3F3F3F"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -443,7 +443,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5C21FF1F-2A2F-0E48-93E8-F10F089B579E}" name="Table2" displayName="Table2" ref="A1:D21" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowCellStyle="Output">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5C21FF1F-2A2F-0E48-93E8-F10F089B579E}" name="Table2" displayName="Table2" ref="A1:D21" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" headerRowCellStyle="Output">
   <autoFilter ref="A1:D21" xr:uid="{5C21FF1F-2A2F-0E48-93E8-F10F089B579E}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -451,10 +451,10 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{2746041C-EEDE-A14E-A370-16D3E6997369}" name="Potential defect outcome" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{07FEA9E1-2DF8-0246-8438-FA449ECCA4E1}" name="Type of data to be tested" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{ED2AFF8D-ED70-D442-9DA4-AB59F20903B2}" name="How data should be obtained" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{F986CAA2-3C5E-6C4A-9E10-6B0ECB36DD13}" name="How to test for it…" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{2746041C-EEDE-A14E-A370-16D3E6997369}" name="Potential defect outcome" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{07FEA9E1-2DF8-0246-8438-FA449ECCA4E1}" name="Type of data to be tested" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{ED2AFF8D-ED70-D442-9DA4-AB59F20903B2}" name="How data should be obtained" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{F986CAA2-3C5E-6C4A-9E10-6B0ECB36DD13}" name="How to test for it…" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -759,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9A7D8A4-6AD1-7342-A9B5-AEF38B3E9081}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -779,7 +779,7 @@
         <v>24</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>19</v>
@@ -793,7 +793,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>21</v>
@@ -807,7 +807,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>20</v>
@@ -821,7 +821,7 @@
         <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>23</v>
@@ -835,7 +835,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>28</v>
@@ -849,7 +849,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>27</v>
@@ -863,10 +863,10 @@
         <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="44" x14ac:dyDescent="0.25">
@@ -874,10 +874,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>23</v>
@@ -888,13 +888,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="66" x14ac:dyDescent="0.25">
@@ -905,10 +905,10 @@
         <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="66" x14ac:dyDescent="0.25">
@@ -916,13 +916,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="66" x14ac:dyDescent="0.25">
@@ -930,13 +930,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="66" x14ac:dyDescent="0.25">
@@ -947,10 +947,10 @@
         <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="66" x14ac:dyDescent="0.25">
@@ -958,13 +958,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="66" x14ac:dyDescent="0.25">
@@ -972,13 +972,13 @@
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="66" x14ac:dyDescent="0.25">
@@ -986,13 +986,13 @@
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="66" x14ac:dyDescent="0.25">
@@ -1000,27 +1000,27 @@
         <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="44" x14ac:dyDescent="0.25">
@@ -1028,13 +1028,13 @@
         <v>14</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="66" x14ac:dyDescent="0.25">
@@ -1042,13 +1042,13 @@
         <v>15</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="66" x14ac:dyDescent="0.25">
@@ -1056,13 +1056,13 @@
         <v>16</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
